--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.233575666666667</v>
+        <v>0.8194946666666666</v>
       </c>
       <c r="N2">
-        <v>12.700727</v>
+        <v>2.458484</v>
       </c>
       <c r="O2">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="P2">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="Q2">
-        <v>114.4712530836954</v>
+        <v>5.113735225423999</v>
       </c>
       <c r="R2">
-        <v>1030.241277753259</v>
+        <v>46.02361702881599</v>
       </c>
       <c r="S2">
-        <v>0.03337269574036905</v>
+        <v>0.002540377425761823</v>
       </c>
       <c r="T2">
-        <v>0.03337269574036906</v>
+        <v>0.002540377425761824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>10.81695</v>
       </c>
       <c r="O3">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="P3">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="Q3">
-        <v>97.49283021701665</v>
+        <v>22.49964541019999</v>
       </c>
       <c r="R3">
-        <v>877.4354719531498</v>
+        <v>202.4968086917999</v>
       </c>
       <c r="S3">
-        <v>0.02842284391978388</v>
+        <v>0.01117726842867163</v>
       </c>
       <c r="T3">
-        <v>0.02842284391978388</v>
+        <v>0.01117726842867164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>1.162819</v>
       </c>
       <c r="N4">
-        <v>3.488456999999999</v>
+        <v>3.488457</v>
       </c>
       <c r="O4">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="P4">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="Q4">
-        <v>31.44135324840766</v>
+        <v>7.256116144451999</v>
       </c>
       <c r="R4">
-        <v>282.9721792356689</v>
+        <v>65.30504530006799</v>
       </c>
       <c r="S4">
-        <v>0.009166342530184342</v>
+        <v>0.003604659380960304</v>
       </c>
       <c r="T4">
-        <v>0.009166342530184344</v>
+        <v>0.003604659380960305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.233575666666667</v>
+        <v>0.8194946666666666</v>
       </c>
       <c r="N5">
-        <v>12.700727</v>
+        <v>2.458484</v>
       </c>
       <c r="O5">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="P5">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="Q5">
-        <v>1462.982260067644</v>
+        <v>283.1899684687453</v>
       </c>
       <c r="R5">
-        <v>13166.8403406088</v>
+        <v>2548.709716218708</v>
       </c>
       <c r="S5">
-        <v>0.4265146097692985</v>
+        <v>0.1406817856981545</v>
       </c>
       <c r="T5">
-        <v>0.4265146097692986</v>
+        <v>0.1406817856981546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>10.81695</v>
       </c>
       <c r="O6">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="P6">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="Q6">
         <v>1245.99213557135</v>
@@ -818,10 +818,10 @@
         <v>11213.92922014215</v>
       </c>
       <c r="S6">
-        <v>0.3632537891841949</v>
+        <v>0.6189781352279098</v>
       </c>
       <c r="T6">
-        <v>0.3632537891841949</v>
+        <v>0.6189781352279099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>1.162819</v>
       </c>
       <c r="N7">
-        <v>3.488456999999999</v>
+        <v>3.488457</v>
       </c>
       <c r="O7">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="P7">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="Q7">
-        <v>401.8313838262009</v>
+        <v>401.831383826201</v>
       </c>
       <c r="R7">
         <v>3616.482454435808</v>
       </c>
       <c r="S7">
-        <v>0.1171490321815419</v>
+        <v>0.1996199121455446</v>
       </c>
       <c r="T7">
-        <v>0.1171490321815419</v>
+        <v>0.1996199121455446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.233575666666667</v>
+        <v>0.8194946666666666</v>
       </c>
       <c r="N8">
-        <v>12.700727</v>
+        <v>2.458484</v>
       </c>
       <c r="O8">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="P8">
-        <v>0.4702904532725788</v>
+        <v>0.1466535424263973</v>
       </c>
       <c r="Q8">
-        <v>35.68370291989245</v>
+        <v>6.907306384060443</v>
       </c>
       <c r="R8">
-        <v>321.1533262790321</v>
+        <v>62.16575745654399</v>
       </c>
       <c r="S8">
-        <v>0.01040314776291121</v>
+        <v>0.003431379302480951</v>
       </c>
       <c r="T8">
-        <v>0.01040314776291122</v>
+        <v>0.003431379302480953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>10.81695</v>
       </c>
       <c r="O9">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="P9">
-        <v>0.4005367817548413</v>
+        <v>0.6452529427684778</v>
       </c>
       <c r="Q9">
         <v>30.39108157346666</v>
       </c>
       <c r="R9">
-        <v>273.5197341612</v>
+        <v>273.5197341611999</v>
       </c>
       <c r="S9">
-        <v>0.008860148650862459</v>
+        <v>0.01509753911189633</v>
       </c>
       <c r="T9">
-        <v>0.008860148650862463</v>
+        <v>0.01509753911189633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>1.162819</v>
       </c>
       <c r="N10">
-        <v>3.488456999999999</v>
+        <v>3.488457</v>
       </c>
       <c r="O10">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="P10">
-        <v>0.1291727649725799</v>
+        <v>0.2080935148051249</v>
       </c>
       <c r="Q10">
         <v>9.801097467634666</v>
@@ -1066,10 +1066,10 @@
         <v>88.209877208712</v>
       </c>
       <c r="S10">
-        <v>0.002857390260853726</v>
+        <v>0.004868943278619992</v>
       </c>
       <c r="T10">
-        <v>0.002857390260853727</v>
+        <v>0.004868943278619994</v>
       </c>
     </row>
   </sheetData>
